--- a/Test_Data/CCalc_Excel_testData.xlsx
+++ b/Test_Data/CCalc_Excel_testData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osset\Desktop\Neuer Ordner (2)\CCalc Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Godot\Concentration Calculator\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19EEE5A-3B8F-45D9-A3AA-D90DCD5BFBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280487E3-4D48-43F4-9DE0-8C24F2721287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SA" sheetId="1" r:id="rId1"/>
@@ -323,7 +323,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,6 +333,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,9 +355,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -634,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,322 +651,322 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>3.32</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>366794</v>
       </c>
-      <c r="J2" t="b">
+      <c r="J2" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>3.32</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>523125</v>
       </c>
-      <c r="J3" t="b">
+      <c r="J3" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>3.32</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>611761</v>
       </c>
-      <c r="J4" t="b">
+      <c r="J4" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>3.33</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>612494</v>
       </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>3.32</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>87972</v>
       </c>
-      <c r="J5" t="b">
+      <c r="J5" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>3.34</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>273336</v>
       </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>3.32</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>480595</v>
       </c>
-      <c r="J6" t="b">
+      <c r="J6" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>3.34</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>106356</v>
       </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>3.32</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>583484</v>
       </c>
-      <c r="J7" t="b">
+      <c r="J7" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>3.33</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>446176</v>
       </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>3.32</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>559143</v>
       </c>
-      <c r="J8" t="b">
+      <c r="J8" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>3.33</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>2210954</v>
       </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>3.32</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>432808</v>
       </c>
-      <c r="J9" t="b">
+      <c r="J9" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>3.36</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>483998</v>
       </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>3.35</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>704207</v>
       </c>
-      <c r="J10" t="b">
+      <c r="J10" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4643,7 +4650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0F0052-5222-45C2-817B-680CE86A175F}">
   <dimension ref="A1:A62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -6647,7 +6654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:J52"/>
     </sheetView>
   </sheetViews>
@@ -16721,7 +16728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A45BB4-3E7D-4146-98E5-1695B7CBDD2F}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD9"/>
     </sheetView>
   </sheetViews>
